--- a/biology/Médecine/Université_de_médecine_de_Hamamatsu/Université_de_médecine_de_Hamamatsu.xlsx
+++ b/biology/Médecine/Université_de_médecine_de_Hamamatsu/Université_de_médecine_de_Hamamatsu.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Hamamatsu</t>
+          <t>Université_de_médecine_de_Hamamatsu</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Université de médecine de Hamamatsu (浜松医科大学, Hamamatsu Ika Daigaku?, couramment abrégée en Hamaidai, 浜医大) est une université nationale japonaise, située à Hamamatsu dans la préfecture de Shizuoka
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Hamamatsu</t>
+          <t>Université_de_médecine_de_Hamamatsu</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'université est créée en 1974. En 1977, l'hôpital universitaire est achevé. en 1995, le département de formation des infirmières est ouvert[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université est créée en 1974. En 1977, l'hôpital universitaire est achevé. en 1995, le département de formation des infirmières est ouvert.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Universit%C3%A9_de_m%C3%A9decine_de_Hamamatsu</t>
+          <t>Université_de_médecine_de_Hamamatsu</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,16 +556,87 @@
           <t>Composantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'université est structurée en faculté de 1er cycle (学部, gakubu?), qui a la charge des étudiants de 1er cycle universitaire, et en faculté de cycles supérieurs (研究科, kenkyūka?), qui a la charge des étudiants de 2e et 3e cycle universitaire[2].
-Facultés de 1er cycle
-L'université compte 1 faculté de 1er cycle (学部, gakubu?).
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'université est structurée en faculté de 1er cycle (学部, gakubu?), qui a la charge des étudiants de 1er cycle universitaire, et en faculté de cycles supérieurs (研究科, kenkyūka?), qui a la charge des étudiants de 2e et 3e cycle universitaire.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Université_de_médecine_de_Hamamatsu</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_de_m%C3%A9decine_de_Hamamatsu</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Composantes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Facultés de 1er cycle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'université compte 1 faculté de 1er cycle (学部, gakubu?).
 Faculté de médecine
 Département de formation des médecins
-Département de formation des infirmières.
-Facultés de cycles supérieur
-L'université compte 1 faculté de cycles supérieurs (研究科, kenkyūka?).
+Département de formation des infirmières.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Université_de_médecine_de_Hamamatsu</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Universit%C3%A9_de_m%C3%A9decine_de_Hamamatsu</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Composantes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Facultés de cycles supérieur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>L'université compte 1 faculté de cycles supérieurs (研究科, kenkyūka?).
 Faculté de médecine</t>
         </is>
       </c>
